--- a/entradas/matriz_curricular.xlsx
+++ b/entradas/matriz_curricular.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t xml:space="preserve">DISCIPLINAS</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">PERÍODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARGA HORÁRIA</t>
   </si>
   <si>
     <t xml:space="preserve">ALGORITMOS E TÉCNICAS DE PROGRAMAÇÃO</t>
@@ -227,6 +224,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,11 +307,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -326,10 +324,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -416,7 +410,7 @@
   <dimension ref="A1:AMJ55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,671 +418,526 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1023" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1022" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="AMI7" s="8"/>
+      <c r="AMH7" s="7"/>
+      <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="AMI13" s="8"/>
+      <c r="AMH13" s="7"/>
+      <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="AMI20" s="8"/>
+      <c r="AMH20" s="7"/>
+      <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="AMI26" s="8"/>
+      <c r="AMH26" s="7"/>
+      <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="AMI33" s="8"/>
+      <c r="AMH33" s="7"/>
+      <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="AMI41" s="8"/>
+      <c r="AMH41" s="7"/>
+      <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="48" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="AMI48" s="8"/>
+      <c r="AMH48" s="7"/>
+      <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
